--- a/src/test/Testcase.xlsx
+++ b/src/test/Testcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tai_lieu\TKXDPM\Task_in_class\Lab04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fubukishirakami/Desktop/TKXDPM.VP.20231-20205233.DuongNhatThanh/src/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92772334-91E5-4B52-9D81-8D528810BEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AD0132-5D12-C34E-AC1E-9AE2AE298625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AFB2DB71-D4FD-40B4-B0D0-542FFF60DE87}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{AFB2DB71-D4FD-40B4-B0D0-542FFF60DE87}"/>
   </bookViews>
   <sheets>
     <sheet name="validateDeliveryInfo" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>STT</t>
   </si>
@@ -52,21 +52,12 @@
     <t>Test  Tên người nhận</t>
   </si>
   <si>
-    <t>Le Minh Tu</t>
-  </si>
-  <si>
     <t>Tên đúng cú pháp</t>
   </si>
   <si>
-    <t>tulm5</t>
-  </si>
-  <si>
     <t>tên không chứa ký tự đặc biệt</t>
   </si>
   <si>
-    <t>tu@vipro</t>
-  </si>
-  <si>
     <t>"0123456789"</t>
   </si>
   <si>
@@ -107,6 +98,18 @@
   </si>
   <si>
     <t>địa chỉ không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Duong Nhat Thanh</t>
+  </si>
+  <si>
+    <t>thanhdn205233</t>
+  </si>
+  <si>
+    <t>duongnhatthanh2001@vjppro</t>
+  </si>
+  <si>
+    <t>tên không chứa ký tự số</t>
   </si>
 </sst>
 </file>
@@ -547,26 +550,26 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.77734375" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -574,19 +577,19 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,106 +627,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
@@ -732,30 +735,30 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -764,7 +767,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -784,7 +787,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -804,7 +807,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -824,7 +827,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -844,7 +847,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -864,7 +867,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -884,7 +887,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -904,7 +907,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -945,7 +948,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
